--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,77 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -758,11 +761,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +778,11 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,11 +921,11 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +985,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -995,11 +1014,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1026,17 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1097,9 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1096,13 +1122,13 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
@@ -1111,13 +1137,16 @@
         <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1140,13 +1169,13 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>-100</v>
-      </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
@@ -1155,13 +1184,16 @@
         <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1202,19 +1235,19 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>-100</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1222,8 +1255,11 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1267,46 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1349,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,7 +1784,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1730,72 +1799,78 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2000,19 +2086,22 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2144,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2084,8 +2176,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2191,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2238,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2285,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2220,19 +2321,22 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2379,11 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,13 +2426,16 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>4</v>
@@ -2333,8 +2443,8 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2567,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,8 +2661,11 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2572,19 +2697,22 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2748,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2636,8 +2766,8 @@
       <c r="G57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -2645,43 +2775,46 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -2690,42 +2823,45 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>500</v>
       </c>
       <c r="M58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
       </c>
       <c r="O58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
         <v>500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>300</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
@@ -2734,42 +2870,45 @@
         <v>300</v>
       </c>
       <c r="K59" s="3">
+        <v>300</v>
+      </c>
+      <c r="L59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>600</v>
       </c>
       <c r="G60" s="3">
         <v>600</v>
       </c>
       <c r="H60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I60" s="3">
         <v>900</v>
@@ -2778,25 +2917,28 @@
         <v>900</v>
       </c>
       <c r="K60" s="3">
+        <v>900</v>
+      </c>
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +2981,11 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,25 +3169,28 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>100</v>
+      </c>
+      <c r="E66" s="3">
         <v>900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>600</v>
       </c>
       <c r="G66" s="3">
         <v>600</v>
       </c>
       <c r="H66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I66" s="3">
         <v>900</v>
@@ -3042,25 +3199,28 @@
         <v>900</v>
       </c>
       <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-2900</v>
       </c>
       <c r="M72" s="3">
         <v>-2900</v>
       </c>
       <c r="N72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O72" s="3">
         <v>-2500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1000</v>
       </c>
       <c r="I76" s="3">
         <v>-1000</v>
       </c>
       <c r="J76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4105,11 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -3910,19 +4126,19 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>-100</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4173,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4312,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -4342,34 +4587,37 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4660,11 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -764,14 +772,14 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -781,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,13 +920,15 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -924,14 +952,14 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
@@ -941,8 +969,14 @@
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1022,22 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1017,26 +1057,32 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1150,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1107,16 +1161,16 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1125,28 +1179,34 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
       </c>
       <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>200</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1154,16 +1214,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1172,28 +1232,34 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q18" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1220,13 +1288,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1238,83 +1306,95 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
-        <v>-200</v>
+      <c r="E21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F21" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
       </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I21" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1352,8 +1432,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1361,46 +1447,52 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G23" s="3">
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1591,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1502,46 +1606,52 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G26" s="3">
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1549,46 +1659,52 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G27" s="3">
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1784,14 +1924,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1802,28 +1942,34 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1831,46 +1977,52 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G33" s="3">
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +2068,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1925,98 +2083,110 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G35" s="3">
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2225,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2089,19 +2263,25 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2179,11 +2365,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2194,8 +2380,14 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,31 +2433,37 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2288,13 +2486,19 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2324,19 +2528,25 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2592,14 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,28 +2645,34 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -2476,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,13 +2910,19 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -2700,19 +2952,25 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,16 +3009,18 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -2769,17 +3031,17 @@
       <c r="H57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2787,17 +3049,23 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2805,140 +3073,158 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>100</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>300</v>
       </c>
       <c r="J59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>300</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>300</v>
+      </c>
+      <c r="P59" s="3">
         <v>400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
-      </c>
-      <c r="I60" s="3">
-        <v>900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>900</v>
       </c>
       <c r="K60" s="3">
         <v>900</v>
       </c>
       <c r="L60" s="3">
+        <v>900</v>
+      </c>
+      <c r="M60" s="3">
+        <v>900</v>
+      </c>
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>300</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>900</v>
-      </c>
-      <c r="J66" s="3">
-        <v>900</v>
       </c>
       <c r="K66" s="3">
         <v>900</v>
       </c>
       <c r="L66" s="3">
+        <v>900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>900</v>
+      </c>
+      <c r="N66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>100</v>
+      </c>
+      <c r="S70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-5200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +4086,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3769,46 +4159,52 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="G81" s="3">
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-900</v>
       </c>
       <c r="I81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,16 +4222,18 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -3873,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,43 +4536,49 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4155,8 +4589,14 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4769,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +5161,14 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +5212,12 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>1300</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -760,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>0</v>
@@ -778,11 +782,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -795,16 +799,19 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -812,11 +819,11 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>900</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -848,16 +855,19 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -865,11 +875,11 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
+        <v>300</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,16 +935,17 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -958,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,20 +1045,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1063,11 +1083,11 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,28 +1178,29 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1185,13 +1212,13 @@
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
@@ -1200,33 +1227,36 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>-100</v>
-      </c>
       <c r="G18" s="3">
         <v>-100</v>
       </c>
       <c r="H18" s="3">
-        <v>-900</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1238,13 +1268,13 @@
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>-100</v>
-      </c>
       <c r="O18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
@@ -1253,13 +1283,16 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,13 +1312,14 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1294,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
@@ -1312,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1343,61 +1380,64 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
-        <v>-100</v>
+      <c r="F21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,52 +1490,55 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-100</v>
-      </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,13 +1982,16 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1930,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -1948,19 +2018,19 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,13 +2313,14 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2269,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,31 +2423,34 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2371,8 +2464,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2386,31 +2479,34 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2439,22 +2535,25 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -2465,8 +2564,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2492,22 +2591,25 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -2534,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,31 +2703,34 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
+        <v>600</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2651,13 +2759,16 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>0</v>
@@ -2665,8 +2776,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -2674,8 +2785,8 @@
       <c r="I49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,31 +2927,34 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,22 +3039,25 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -2958,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3022,11 +3153,11 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -3037,8 +3168,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3046,31 +3177,34 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3079,19 +3213,19 @@
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -3100,51 +3234,54 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>500</v>
       </c>
       <c r="P58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>1100</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>200</v>
-      </c>
-      <c r="K59" s="3">
-        <v>300</v>
       </c>
       <c r="L59" s="3">
         <v>300</v>
@@ -3153,51 +3290,54 @@
         <v>300</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="O59" s="3">
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
-        <v>100</v>
-      </c>
       <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>600</v>
       </c>
       <c r="J60" s="3">
         <v>600</v>
       </c>
       <c r="K60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L60" s="3">
         <v>900</v>
@@ -3206,30 +3346,33 @@
         <v>900</v>
       </c>
       <c r="N60" s="3">
+        <v>900</v>
+      </c>
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3276,31 +3419,34 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,34 +3643,37 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>300</v>
       </c>
-      <c r="F66" s="3">
-        <v>100</v>
-      </c>
       <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="3">
         <v>900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>600</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="L66" s="3">
         <v>900</v>
@@ -3524,25 +3682,28 @@
         <v>900</v>
       </c>
       <c r="N66" s="3">
+        <v>900</v>
+      </c>
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3683,7 +3851,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>100</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5600</v>
       </c>
-      <c r="F72" s="3">
-        <v>-5200</v>
-      </c>
       <c r="G72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H72" s="3">
         <v>-5100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-2900</v>
       </c>
       <c r="P72" s="3">
         <v>-2900</v>
       </c>
       <c r="Q72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R72" s="3">
         <v>-2500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-300</v>
       </c>
-      <c r="F76" s="3">
-        <v>-200</v>
-      </c>
       <c r="G76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H76" s="3">
         <v>-900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1000</v>
       </c>
       <c r="L76" s="3">
         <v>-1000</v>
       </c>
       <c r="M76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="N76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>-900</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4235,8 +4434,8 @@
       <c r="E83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,25 +4756,28 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>700</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -4569,19 +4786,19 @@
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,22 +5304,25 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
@@ -5088,34 +5334,37 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5182,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,130 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="3">
         <v>1300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
+        <v>500</v>
+      </c>
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -785,55 +796,64 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
+        <v>800</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
+        <v>300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>900</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -858,38 +878,47 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3">
         <v>900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>900</v>
+      </c>
+      <c r="H10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
+        <v>700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>200</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -914,8 +943,17 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +974,11 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -947,14 +988,14 @@
       <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -975,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
@@ -984,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -992,8 +1033,17 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1098,40 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1086,8 +1145,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1095,17 +1154,26 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1228,17 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1256,141 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>200</v>
       </c>
       <c r="M17" s="3">
         <v>200</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P17" s="3">
         <v>200</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>200</v>
+      </c>
+      <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
-      </c>
       <c r="L18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
         <v>-200</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="P18" s="3">
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,23 +1411,26 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1349,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1364,84 +1465,102 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
-      </c>
       <c r="L21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
       <c r="R21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1481,64 +1600,82 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F23" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
-      </c>
       <c r="L23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1730,17 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1795,147 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-100</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F26" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
-      </c>
       <c r="L26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-100</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F27" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
-      </c>
       <c r="L27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
       </c>
       <c r="N27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1990,17 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2055,17 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2120,17 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2185,22 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2000,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2021,84 +2230,102 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-100</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F33" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
-      </c>
       <c r="L33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
       </c>
       <c r="N33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2380,152 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-100</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F35" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
-      </c>
       <c r="L35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
       </c>
       <c r="N35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2546,11 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,22 +2571,25 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2359,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2368,10 +2628,19 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,40 +2695,49 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2467,14 +2745,14 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2482,19 +2760,28 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>100</v>
+      </c>
+      <c r="F44" s="3">
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
@@ -2505,17 +2792,17 @@
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2538,43 +2825,52 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>100</v>
+      </c>
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
-        <v>100</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2594,32 +2890,41 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
-        <v>100</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>100</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2639,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
@@ -2648,10 +2953,19 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,40 +3020,49 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>500</v>
+      </c>
+      <c r="E48" s="3">
         <v>600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -2762,8 +3085,17 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,31 +3103,31 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2818,8 +3150,17 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3215,17 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,19 +3280,28 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -2953,17 +3312,17 @@
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2986,8 +3345,17 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,32 +3410,41 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
-        <v>100</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -3087,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
         <v>0</v>
@@ -3096,10 +3473,19 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,52 +3531,55 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>4</v>
@@ -3195,194 +3587,230 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>700</v>
+      </c>
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
-        <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
       <c r="H58" s="3">
+        <v>100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
-      </c>
-      <c r="O58" s="3">
-        <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>500</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
-      <c r="L59" s="3">
-        <v>300</v>
       </c>
       <c r="M59" s="3">
         <v>300</v>
       </c>
       <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
       </c>
       <c r="Q59" s="3">
+        <v>300</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>300</v>
+      </c>
+      <c r="T59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>900</v>
-      </c>
-      <c r="O60" s="3">
-        <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>700</v>
+      </c>
+      <c r="S60" s="3">
+        <v>800</v>
+      </c>
+      <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>300</v>
+      </c>
+      <c r="F61" s="3">
+        <v>300</v>
+      </c>
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3422,40 +3850,49 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3">
+        <v>200</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3478,8 +3915,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3980,17 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4045,17 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +4110,82 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>600</v>
       </c>
       <c r="K66" s="3">
+        <v>900</v>
+      </c>
+      <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
+        <v>600</v>
+      </c>
+      <c r="O66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>800</v>
+      </c>
+      <c r="T66" s="3">
+        <v>900</v>
+      </c>
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>1400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4206,11 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4265,17 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4330,17 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3851,7 +4354,7 @@
         <v>100</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H70" s="3">
         <v>100</v>
@@ -3860,7 +4363,7 @@
         <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>100</v>
@@ -3892,8 +4395,17 @@
       <c r="T70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>100</v>
+      </c>
+      <c r="V70" s="3">
+        <v>100</v>
+      </c>
+      <c r="W70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4460,82 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G72" s="3">
         <v>600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-5800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-5600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-5100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-4900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-4000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-3700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-3300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-3000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-2900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-2500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-2400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4590,17 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4655,17 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4720,82 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-900</v>
       </c>
       <c r="R76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="S76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4850,152 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-100</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>800</v>
+        <v>-200</v>
       </c>
       <c r="F81" s="3">
-        <v>-500</v>
+        <v>-1300</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
-      </c>
       <c r="L81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
       </c>
       <c r="N81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,25 +5016,28 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4479,8 +5075,17 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5140,17 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5205,17 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5270,17 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5335,17 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,55 +5400,64 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
+        <v>200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -4815,8 +5465,17 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5496,11 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4849,13 +5511,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4893,8 +5555,17 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5620,17 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5685,17 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5017,13 +5706,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5061,8 +5750,17 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5781,11 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5840,17 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5905,17 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5970,17 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,52 +6035,61 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -5363,8 +6100,17 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +6165,17 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,25 +6183,25 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -5473,6 +6228,15 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>300</v>
       </c>
       <c r="E8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
-        <v>5300</v>
-      </c>
       <c r="I8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J8" s="3">
         <v>1000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>500</v>
       </c>
       <c r="K8" s="3">
         <v>500</v>
       </c>
       <c r="L8" s="3">
+        <v>500</v>
+      </c>
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -805,11 +809,11 @@
         <v>0</v>
       </c>
       <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
@@ -822,41 +826,44 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
-        <v>3400</v>
-      </c>
       <c r="I9" s="3">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>900</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,41 +894,44 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F10" s="3">
         <v>900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>900</v>
       </c>
-      <c r="H10" s="3">
-        <v>1900</v>
-      </c>
       <c r="I10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
-        <v>-100</v>
-      </c>
       <c r="L10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -997,8 +1011,8 @@
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1025,10 +1039,10 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,34 +1124,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>500</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1154,11 +1174,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,40 +1285,41 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F17" s="3">
         <v>1500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
-        <v>4400</v>
-      </c>
       <c r="I17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
@@ -1304,13 +1331,13 @@
         <v>200</v>
       </c>
       <c r="Q17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
       </c>
       <c r="S17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>200</v>
@@ -1319,45 +1346,48 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>900</v>
-      </c>
       <c r="I18" s="3">
+        <v>600</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
@@ -1369,13 +1399,13 @@
         <v>-200</v>
       </c>
       <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>-100</v>
-      </c>
       <c r="S18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-200</v>
@@ -1384,13 +1414,16 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="W18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1429,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1459,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="T20" s="3">
-        <v>-100</v>
-      </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1479,91 +1513,97 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
+      <c r="H21" s="3">
+        <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>700</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>-100</v>
-      </c>
       <c r="O21" s="3">
         <v>-100</v>
       </c>
       <c r="P21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>-100</v>
-      </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
-        <v>-100</v>
-      </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>500</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-1300</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-100</v>
-      </c>
       <c r="H23" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
+        <v>100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>-100</v>
-      </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
-        <v>-100</v>
-      </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-1300</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-100</v>
-      </c>
       <c r="H26" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>600</v>
+      </c>
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
+        <v>100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-1300</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-100</v>
-      </c>
       <c r="H27" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
+        <v>100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2209,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2239,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="T32" s="3">
-        <v>100</v>
-      </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-1300</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-100</v>
-      </c>
       <c r="H33" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
+        <v>100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
       <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>-100</v>
-      </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
-        <v>-100</v>
-      </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-1300</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-100</v>
-      </c>
       <c r="H35" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>600</v>
+      </c>
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
+        <v>100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
       <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>-100</v>
-      </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
-        <v>-100</v>
-      </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2586,13 +2673,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2628,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,34 +2794,37 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="3">
-        <v>100</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -2739,8 +2832,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2754,8 +2847,8 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2769,34 +2862,37 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
+        <v>100</v>
+      </c>
+      <c r="G44" s="3">
         <v>200</v>
       </c>
-      <c r="G44" s="3">
-        <v>100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>100</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="3">
-        <v>100</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>100</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2804,8 +2900,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -2834,34 +2930,37 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2872,8 +2971,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2899,35 +2998,38 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1000</v>
       </c>
-      <c r="H46" s="3">
-        <v>100</v>
-      </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2953,10 +3055,10 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,16 +3134,19 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -3046,26 +3154,26 @@
       <c r="G48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="H48" s="3">
+        <v>600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3094,13 +3202,16 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>100</v>
@@ -3112,7 +3223,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -3120,8 +3231,8 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>0</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3129,8 +3240,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3306,17 +3426,17 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -3324,8 +3444,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,35 +3542,38 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
-        <v>100</v>
-      </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -3473,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="T54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3558,11 +3689,11 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3572,8 +3703,8 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -3581,44 +3712,47 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>700</v>
       </c>
       <c r="G58" s="3">
+        <v>700</v>
+      </c>
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
@@ -3626,19 +3760,19 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -3647,42 +3781,45 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S58" s="3">
         <v>500</v>
       </c>
       <c r="T58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
       </c>
       <c r="V58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
       </c>
       <c r="F59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3691,19 +3828,19 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
       </c>
       <c r="P59" s="3">
         <v>300</v>
@@ -3712,63 +3849,66 @@
         <v>300</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>2100</v>
       </c>
       <c r="F60" s="3">
         <v>2100</v>
       </c>
       <c r="G60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>600</v>
       </c>
       <c r="N60" s="3">
         <v>600</v>
       </c>
       <c r="O60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
@@ -3777,43 +3917,46 @@
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
+        <v>300</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3859,43 +4002,46 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>300</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,46 +4274,49 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2600</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2700</v>
       </c>
       <c r="F66" s="3">
         <v>2700</v>
       </c>
       <c r="G66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>600</v>
       </c>
       <c r="N66" s="3">
         <v>600</v>
       </c>
       <c r="O66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="P66" s="3">
         <v>900</v>
@@ -4167,25 +4325,28 @@
         <v>900</v>
       </c>
       <c r="R66" s="3">
+        <v>900</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4363,10 +4531,10 @@
         <v>100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>100</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5600</v>
       </c>
-      <c r="J72" s="3">
-        <v>-100</v>
-      </c>
       <c r="K72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-5100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-4900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-2900</v>
       </c>
       <c r="T72" s="3">
         <v>-2900</v>
       </c>
       <c r="U72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="V72" s="3">
         <v>-2500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="J76" s="3">
-        <v>-100</v>
-      </c>
       <c r="K76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L76" s="3">
         <v>-900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-1000</v>
       </c>
       <c r="P76" s="3">
         <v>-1000</v>
       </c>
       <c r="Q76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-1300</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-100</v>
-      </c>
       <c r="H81" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>600</v>
+      </c>
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
+        <v>100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
       <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>-100</v>
-      </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
-        <v>-100</v>
-      </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5033,11 +5232,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,37 +5623,40 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
-        <v>700</v>
-      </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="J89" s="3">
         <v>200</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
@@ -5448,19 +5665,19 @@
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5511,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5706,13 +5936,13 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,34 +6287,37 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
@@ -6083,34 +6329,37 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,10 +6435,10 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -6195,16 +6447,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,143 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1600</v>
       </c>
-      <c r="G8" s="3">
-        <v>1100</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>1300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>500</v>
       </c>
       <c r="L8" s="3">
         <v>500</v>
       </c>
       <c r="M8" s="3">
+        <v>500</v>
+      </c>
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -812,11 +815,11 @@
         <v>0</v>
       </c>
       <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -829,44 +832,47 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
-        <v>800</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>300</v>
       </c>
       <c r="K9" s="3">
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,44 +903,47 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K10" s="3">
+        <v>700</v>
+      </c>
+      <c r="L10" s="3">
+        <v>200</v>
+      </c>
+      <c r="M10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
-        <v>900</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>700</v>
-      </c>
-      <c r="K10" s="3">
-        <v>200</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>300</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1014,8 +1027,8 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
@@ -1042,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,37 +1143,40 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>500</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1177,11 +1196,11 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,43 +1311,44 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
-        <v>2000</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>200</v>
       </c>
       <c r="O17" s="3">
         <v>200</v>
@@ -1334,13 +1360,13 @@
         <v>200</v>
       </c>
       <c r="R17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
       </c>
       <c r="T17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1349,48 +1375,51 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>100</v>
       </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
@@ -1402,13 +1431,13 @@
         <v>-200</v>
       </c>
       <c r="R18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
-        <v>-100</v>
-      </c>
       <c r="T18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
@@ -1417,13 +1446,16 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1480,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1466,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1496,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
-        <v>-100</v>
-      </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1516,97 +1549,103 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
-        <v>-900</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-100</v>
-      </c>
       <c r="P21" s="3">
         <v>-100</v>
       </c>
       <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
-        <v>-100</v>
-      </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
-        <v>-100</v>
-      </c>
       <c r="X21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>500</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
-        <v>-100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
       <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
-        <v>-100</v>
-      </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
-        <v>-100</v>
-      </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
-        <v>-100</v>
-      </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
-        <v>100</v>
-      </c>
       <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>-100</v>
-      </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
-        <v>-100</v>
-      </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>-100</v>
-      </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
-        <v>-100</v>
-      </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
-        <v>100</v>
-      </c>
       <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>-100</v>
-      </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
-        <v>-100</v>
-      </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>-100</v>
-      </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,31 +2117,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,16 +2330,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2282,10 +2351,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2312,19 +2381,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
-        <v>-100</v>
-      </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
-        <v>100</v>
-      </c>
       <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
-        <v>100</v>
-      </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>-100</v>
-      </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
-        <v>-100</v>
-      </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>-100</v>
-      </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
-        <v>-100</v>
-      </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
-        <v>100</v>
-      </c>
       <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
-        <v>100</v>
-      </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>-100</v>
-      </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
-        <v>-100</v>
-      </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>-100</v>
-      </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,13 +2746,14 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2676,13 +2762,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2718,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,37 +2886,40 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
-        <v>100</v>
-      </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -2835,8 +2927,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2850,8 +2942,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2865,37 +2957,40 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
+      <c r="D44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
+        <v>100</v>
+      </c>
+      <c r="H44" s="3">
         <v>200</v>
       </c>
-      <c r="H44" s="3">
-        <v>100</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>100</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>100</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3">
+        <v>100</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2903,8 +2998,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,28 +3040,28 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2974,8 +3072,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,29 +3111,29 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1000</v>
       </c>
-      <c r="I46" s="3">
-        <v>100</v>
-      </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3058,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,19 +3241,22 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -3157,26 +3264,26 @@
       <c r="H48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3205,16 +3312,19 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3226,7 +3336,7 @@
         <v>100</v>
       </c>
       <c r="I49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J49" s="3">
         <v>0</v>
@@ -3234,8 +3344,8 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -3243,8 +3353,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3429,17 +3548,17 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -3447,8 +3566,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,29 +3679,29 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
-        <v>100</v>
-      </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3602,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="U54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3794,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3692,11 +3822,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3706,8 +3836,8 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -3715,47 +3845,50 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
       <c r="J58" s="3">
         <v>100</v>
       </c>
@@ -3763,19 +3896,19 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O58" s="3">
         <v>300</v>
       </c>
       <c r="P58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -3784,45 +3917,48 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T58" s="3">
         <v>500</v>
       </c>
       <c r="U58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V58" s="3">
         <v>600</v>
       </c>
       <c r="W58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1200</v>
       </c>
       <c r="F59" s="3">
         <v>1200</v>
       </c>
       <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
@@ -3831,19 +3967,19 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>300</v>
       </c>
       <c r="Q59" s="3">
         <v>300</v>
@@ -3852,66 +3988,69 @@
         <v>300</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="T59" s="3">
+        <v>100</v>
+      </c>
+      <c r="U59" s="3">
         <v>300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2100</v>
       </c>
       <c r="G60" s="3">
         <v>2100</v>
       </c>
       <c r="H60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I60" s="3">
         <v>2000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
-      </c>
-      <c r="N60" s="3">
-        <v>600</v>
       </c>
       <c r="O60" s="3">
         <v>600</v>
       </c>
       <c r="P60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
@@ -3920,46 +4059,49 @@
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
+        <v>300</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -4005,46 +4147,49 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,49 +4431,52 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2700</v>
       </c>
       <c r="G66" s="3">
         <v>2700</v>
       </c>
       <c r="H66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>600</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="Q66" s="3">
         <v>900</v>
@@ -4328,25 +4485,28 @@
         <v>900</v>
       </c>
       <c r="S66" s="3">
+        <v>900</v>
+      </c>
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4534,10 +4701,10 @@
         <v>100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>100</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5600</v>
       </c>
-      <c r="K72" s="3">
-        <v>-100</v>
-      </c>
       <c r="L72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-5100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-4900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-4000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-2900</v>
       </c>
       <c r="U72" s="3">
         <v>-2900</v>
       </c>
       <c r="V72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="W72" s="3">
         <v>-2500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
-        <v>-100</v>
-      </c>
       <c r="L76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M76" s="3">
         <v>-900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-1000</v>
       </c>
       <c r="Q76" s="3">
         <v>-1000</v>
       </c>
       <c r="R76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
-        <v>-100</v>
-      </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
-        <v>100</v>
-      </c>
       <c r="L81" s="3">
+        <v>100</v>
+      </c>
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
-        <v>100</v>
-      </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>-100</v>
-      </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
-        <v>-100</v>
-      </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>-100</v>
-      </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5415,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,40 +5839,43 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>500</v>
-      </c>
-      <c r="J89" s="3">
-        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
@@ -5668,19 +5884,19 @@
         <v>-100</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5735,10 +5955,10 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5939,13 +6168,13 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>0</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,37 +6532,40 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
-        <v>100</v>
-      </c>
       <c r="J100" s="3">
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6332,34 +6577,37 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,40 +6674,43 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,44 +785,44 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>1900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
@@ -818,70 +830,79 @@
         <v>0</v>
       </c>
       <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>200</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>400</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
-        <v>700</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>300</v>
-      </c>
-      <c r="L9" s="3">
-        <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>600</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="Q9" s="3">
         <v>900</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,53 +927,62 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="3">
+        <v>900</v>
+      </c>
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
-        <v>900</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +1007,17 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1043,11 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1030,14 +1072,14 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1058,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1067,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
@@ -1075,8 +1117,17 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,46 +1197,55 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1199,8 +1259,8 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1208,17 +1268,26 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1357,17 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1390,91 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
         <v>-600</v>
       </c>
-      <c r="E17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1500</v>
-      </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>200</v>
       </c>
       <c r="R17" s="3">
         <v>200</v>
       </c>
       <c r="S17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
       </c>
       <c r="V17" s="3">
+        <v>300</v>
+      </c>
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
-      <c r="X17" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="F18" s="3">
-        <v>300</v>
+        <v>-800</v>
       </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-200</v>
-      </c>
       <c r="Q18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
         <v>-200</v>
       </c>
       <c r="S18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1580,11 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,29 +1592,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1532,13 +1634,13 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
@@ -1547,13 +1649,22 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1564,97 +1675,106 @@
         <v>-800</v>
       </c>
       <c r="F21" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q21" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>800</v>
+      </c>
+      <c r="F22" s="3">
+        <v>500</v>
+      </c>
+      <c r="G22" s="3">
         <v>1800</v>
-      </c>
-      <c r="E22" s="3">
-        <v>500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>500</v>
       </c>
       <c r="I22" s="3">
+        <v>400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1694,79 +1814,97 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="E23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AB23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1974,17 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2054,177 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="E26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AB26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1100</v>
       </c>
-      <c r="E27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
+        <v>100</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AB27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,40 +2294,49 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-200</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>4</v>
+        <v>-400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>300</v>
+      </c>
+      <c r="J29" s="3">
+        <v>100</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -2191,8 +2374,17 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2454,17 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2534,17 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,19 +2552,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -2363,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2384,99 +2594,117 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
+        <v>100</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AB33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2774,182 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
+        <v>100</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AB35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2975,11 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,13 +3005,16 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2761,23 +3022,23 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2807,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2816,10 +3077,19 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,55 +3159,64 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3">
-        <v>100</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -2945,14 +3224,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
@@ -2960,35 +3239,44 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>100</v>
-      </c>
-      <c r="G44" s="3">
-        <v>100</v>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
         <v>200</v>
       </c>
-      <c r="I44" s="3">
-        <v>100</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L44" s="3">
         <v>100</v>
       </c>
@@ -2998,17 +3286,17 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3031,58 +3319,67 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
-        <v>100</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>100</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3102,47 +3399,56 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
-        <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -3162,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W46" s="3">
         <v>0</v>
@@ -3171,10 +3477,19 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,55 +3559,64 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3315,55 +3639,64 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3386,8 +3719,17 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3799,17 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,19 +3879,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3551,11 +3911,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3566,17 +3926,17 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -3599,8 +3959,17 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,47 +4039,56 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
       </c>
       <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
-        <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
+        <v>100</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
@@ -3730,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W54" s="3">
         <v>0</v>
@@ -3739,10 +4117,19 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4155,11 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4185,11 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,58 +4197,58 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>4</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>4</v>
@@ -3863,224 +4256,260 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
-        <v>100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
+        <v>100</v>
+      </c>
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
-      </c>
-      <c r="S58" s="3">
-        <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>500</v>
-      </c>
-      <c r="U58" s="3">
-        <v>500</v>
       </c>
       <c r="V58" s="3">
         <v>600</v>
       </c>
       <c r="W58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X58" s="3">
         <v>500</v>
       </c>
       <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>300</v>
       </c>
       <c r="R59" s="3">
         <v>300</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
+        <v>300</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+      <c r="X59" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y59" s="3">
         <v>400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="AA59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AB59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
-      </c>
-      <c r="S60" s="3">
-        <v>900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>700</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>900</v>
       </c>
       <c r="W60" s="3">
+        <v>700</v>
+      </c>
+      <c r="X60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AB60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,29 +4517,29 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4150,55 +4579,64 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4221,8 +4659,17 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4739,17 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4819,17 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4899,97 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>600</v>
       </c>
       <c r="P66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
+        <v>600</v>
+      </c>
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
-      </c>
-      <c r="S66" s="3">
-        <v>900</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>900</v>
       </c>
       <c r="W66" s="3">
+        <v>700</v>
+      </c>
+      <c r="X66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AB66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +5015,11 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +5089,17 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5169,17 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4704,7 +5208,7 @@
         <v>100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M70" s="3">
         <v>100</v>
@@ -4713,7 +5217,7 @@
         <v>100</v>
       </c>
       <c r="O70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>100</v>
@@ -4745,8 +5249,17 @@
       <c r="Y70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5329,97 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="G72" s="3">
         <v>-2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-2300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-1000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-5600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-5100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-4900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-4000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-3700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-3500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-3300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-3000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="X72" s="3">
         <v>-2900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Y72" s="3">
         <v>-2900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Z72" s="3">
         <v>-2500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="AA72" s="3">
         <v>-2400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AB72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5489,17 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5569,17 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5649,97 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-1800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>-1000</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-900</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-700</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-800</v>
       </c>
       <c r="V76" s="3">
         <v>-900</v>
       </c>
       <c r="W76" s="3">
+        <v>-700</v>
+      </c>
+      <c r="X76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="AA76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AB76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5809,182 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
+        <v>100</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AB81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,22 +6010,25 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5487,8 +6084,17 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +6164,17 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6244,17 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6324,17 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6404,17 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,70 +6484,79 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>200</v>
       </c>
       <c r="L89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>500</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
+        <v>200</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
@@ -5913,8 +6564,17 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,35 +6600,38 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
@@ -6011,8 +6674,17 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6754,17 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6834,17 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6171,20 +6861,20 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6914,17 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6950,11 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +7024,17 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +7104,17 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +7184,17 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,67 +7264,76 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
+        <v>100</v>
+      </c>
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -6606,8 +7344,17 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,13 +7424,22 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6695,31 +7451,31 @@
         <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -6746,6 +7502,15 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,11 +797,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -806,26 +809,26 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1000</v>
-      </c>
-      <c r="O8" s="3">
-        <v>500</v>
       </c>
       <c r="P8" s="3">
         <v>500</v>
       </c>
       <c r="Q8" s="3">
+        <v>500</v>
+      </c>
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
       <c r="S8" s="3">
         <v>0</v>
       </c>
@@ -839,11 +842,11 @@
         <v>0</v>
       </c>
       <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
       <c r="Y8" s="3">
         <v>0</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -885,27 +891,27 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>300</v>
       </c>
       <c r="P9" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>900</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,27 +974,27 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3">
         <v>900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1081,8 +1094,8 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -1109,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,49 +1222,52 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1268,11 +1287,11 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1280,14 +1299,17 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,29 +1418,30 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>-600</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1423,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>200</v>
       </c>
       <c r="S17" s="3">
         <v>200</v>
@@ -1453,13 +1479,13 @@
         <v>200</v>
       </c>
       <c r="V17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
       </c>
       <c r="X17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>200</v>
@@ -1468,13 +1494,16 @@
         <v>200</v>
       </c>
       <c r="AA17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,46 +1511,46 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>200</v>
+      </c>
+      <c r="N18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
-        <v>600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
         <v>-200</v>
@@ -1533,13 +1562,13 @@
         <v>-200</v>
       </c>
       <c r="V18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-200</v>
@@ -1548,13 +1577,16 @@
         <v>-200</v>
       </c>
       <c r="AA18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,17 +1628,17 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1613,11 +1646,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1643,28 +1676,31 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,112 +1708,115 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>700</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-100</v>
       </c>
       <c r="T21" s="3">
         <v>-100</v>
       </c>
       <c r="U21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-100</v>
       </c>
       <c r="AB21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>1800</v>
-      </c>
       <c r="H22" s="3">
+        <v>600</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1823,88 +1862,94 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H23" s="3">
+        <v>400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-100</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H26" s="3">
+        <v>400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-100</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H27" s="3">
+        <v>400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-100</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2318,28 +2378,28 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-200</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-400</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>300</v>
       </c>
-      <c r="J29" s="3">
-        <v>100</v>
-      </c>
       <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,17 +2624,17 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2573,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2603,19 +2672,19 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>100</v>
-      </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
@@ -2623,88 +2692,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H33" s="3">
+        <v>300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
       <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-100</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H35" s="3">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
       <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-100</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,8 +3093,9 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3022,11 +3108,11 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -3035,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -3077,10 +3163,10 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3088,8 +3174,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3179,38 +3271,38 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
-        <v>100</v>
-      </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -3218,8 +3310,8 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S43" s="3">
-        <v>0</v>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T43" s="3">
         <v>0</v>
@@ -3233,8 +3325,8 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
+      <c r="X43" s="3">
+        <v>0</v>
       </c>
       <c r="Y43" s="3" t="s">
         <v>4</v>
@@ -3248,8 +3340,11 @@
       <c r="AB43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3265,32 +3360,32 @@
       <c r="G44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
       </c>
       <c r="K44" s="3">
+        <v>100</v>
+      </c>
+      <c r="L44" s="3">
         <v>200</v>
       </c>
-      <c r="L44" s="3">
-        <v>100</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>100</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
@@ -3298,8 +3393,8 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T44" s="3">
         <v>0</v>
@@ -3328,49 +3423,52 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -3381,8 +3479,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3408,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3417,7 +3518,7 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>0</v>
@@ -3429,29 +3530,29 @@
         <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
-        <v>100</v>
-      </c>
       <c r="N46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -3477,10 +3578,10 @@
         <v>0</v>
       </c>
       <c r="Y46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
@@ -3488,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3585,14 +3692,14 @@
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>600</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
@@ -3600,26 +3707,26 @@
       <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
+      <c r="M48" s="3">
+        <v>600</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3648,8 +3755,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3665,11 +3775,11 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>100</v>
@@ -3681,7 +3791,7 @@
         <v>100</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3689,8 +3799,8 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
+      <c r="P49" s="3">
+        <v>0</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>4</v>
@@ -3698,8 +3808,8 @@
       <c r="R49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3902,8 +4021,8 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -3920,17 +4039,17 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -3938,8 +4057,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3968,8 +4087,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,8 +4170,11 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4182,7 @@
         <v>100</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>0</v>
@@ -4069,29 +4194,29 @@
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
         <v>900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
-        <v>100</v>
-      </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
       <c r="Q54" s="3">
         <v>0</v>
       </c>
@@ -4117,10 +4242,10 @@
         <v>0</v>
       </c>
       <c r="Y54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
@@ -4128,8 +4253,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4206,19 +4336,19 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
-        <v>100</v>
-      </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -4227,11 +4357,11 @@
         <v>0</v>
       </c>
       <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4241,8 +4371,8 @@
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
+      <c r="T57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U57" s="3">
         <v>0</v>
@@ -4250,59 +4380,62 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-      <c r="W57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>4</v>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>400</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="K58" s="3">
         <v>700</v>
       </c>
       <c r="L58" s="3">
+        <v>700</v>
+      </c>
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
@@ -4310,19 +4443,19 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
       <c r="R58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S58" s="3">
         <v>300</v>
       </c>
       <c r="T58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U58" s="3">
         <v>600</v>
@@ -4331,57 +4464,60 @@
         <v>600</v>
       </c>
       <c r="W58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X58" s="3">
         <v>500</v>
       </c>
       <c r="Y58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Z58" s="3">
         <v>600</v>
       </c>
       <c r="AA58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AB58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1200</v>
       </c>
       <c r="J59" s="3">
         <v>1200</v>
       </c>
       <c r="K59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>200</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -4390,19 +4526,19 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>300</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
@@ -4411,78 +4547,81 @@
         <v>300</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y59" s="3">
         <v>300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>2100</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>600</v>
       </c>
       <c r="S60" s="3">
         <v>600</v>
       </c>
       <c r="T60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="U60" s="3">
         <v>900</v>
@@ -4491,25 +4630,28 @@
         <v>900</v>
       </c>
       <c r="W60" s="3">
+        <v>900</v>
+      </c>
+      <c r="X60" s="3">
         <v>700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4526,23 +4668,23 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>600</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
+        <v>300</v>
+      </c>
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4602,44 +4747,44 @@
       <c r="F62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>300</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,61 +5062,64 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E66" s="3">
         <v>4600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2700</v>
       </c>
       <c r="K66" s="3">
         <v>2700</v>
       </c>
       <c r="L66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
-      </c>
-      <c r="R66" s="3">
-        <v>600</v>
       </c>
       <c r="S66" s="3">
         <v>600</v>
       </c>
       <c r="T66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="U66" s="3">
         <v>900</v>
@@ -4971,25 +5128,28 @@
         <v>900</v>
       </c>
       <c r="W66" s="3">
+        <v>900</v>
+      </c>
+      <c r="X66" s="3">
         <v>700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5217,10 +5384,10 @@
         <v>100</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>100</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-5800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-5600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-4900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-3700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-3500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-2900</v>
       </c>
       <c r="Y72" s="3">
         <v>-2900</v>
       </c>
       <c r="Z72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-2500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-1000</v>
       </c>
       <c r="U76" s="3">
         <v>-1000</v>
       </c>
       <c r="V76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W76" s="3">
         <v>-900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H81" s="3">
+        <v>300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
       <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-100</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6027,8 +6225,8 @@
       <c r="F83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,52 +6706,55 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>200</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -6547,19 +6763,19 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>0</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,38 +6822,39 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6870,14 +7099,14 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,50 +7515,53 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
@@ -7327,34 +7572,37 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7448,37 +7699,37 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -7511,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -800,41 +808,41 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1200</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
@@ -845,14 +853,14 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
@@ -862,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -894,30 +908,30 @@
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>900</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,30 +997,30 @@
       <c r="L10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="3">
         <v>900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1097,11 +1125,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -1125,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,55 +1259,61 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
@@ -1290,26 +1330,32 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,61 +1471,63 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>800</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>800</v>
+      </c>
+      <c r="T17" s="3">
         <v>1100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>200</v>
       </c>
       <c r="U17" s="3">
         <v>200</v>
@@ -1482,81 +1536,87 @@
         <v>200</v>
       </c>
       <c r="W17" s="3">
+        <v>200</v>
+      </c>
+      <c r="X17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>200</v>
       </c>
       <c r="AA17" s="3">
         <v>200</v>
       </c>
       <c r="AB17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>200</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="Q18" s="3">
+        <v>200</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-200</v>
-      </c>
       <c r="T18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>-200</v>
@@ -1565,28 +1625,34 @@
         <v>-200</v>
       </c>
       <c r="W18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-200</v>
       </c>
       <c r="AA18" s="3">
         <v>-200</v>
       </c>
       <c r="AB18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,47 +1682,49 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1679,150 +1747,162 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>600</v>
       </c>
       <c r="I22" s="3">
         <v>500</v>
       </c>
       <c r="J22" s="3">
+        <v>600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>500</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,16 +2479,22 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -2381,31 +2503,31 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-200</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="K29" s="3">
-        <v>100</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>100</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,46 +2746,52 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2675,111 +2815,123 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>100</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3266,10 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3111,29 +3285,29 @@
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -3166,19 +3340,25 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3274,50 +3460,50 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>100</v>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>100</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
@@ -3328,11 +3514,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
       </c>
       <c r="AA43" s="3" t="s">
         <v>4</v>
@@ -3343,64 +3529,70 @@
       <c r="AC43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
+        <v>100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>100</v>
+      </c>
+      <c r="N44" s="3">
         <v>200</v>
       </c>
-      <c r="M44" s="3">
-        <v>100</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P44" s="3">
-        <v>100</v>
+      <c r="O44" s="3">
+        <v>100</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3">
+        <v>100</v>
       </c>
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V44" s="3">
         <v>0</v>
@@ -3426,55 +3618,61 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+        <v>2400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -3482,11 +3680,11 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3509,22 +3707,28 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3533,32 +3737,32 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
-        <v>100</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3581,42 +3785,48 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA46" s="3">
         <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>5500</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3675,64 +3885,70 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="N48" s="3">
+        <v>600</v>
+      </c>
+      <c r="O48" s="3">
+        <v>600</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>0</v>
@@ -3758,34 +3974,40 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>100</v>
@@ -3794,28 +4016,28 @@
         <v>100</v>
       </c>
       <c r="N49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,22 +4241,28 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
@@ -4042,29 +4282,29 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,22 +4419,28 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>5700</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
@@ -4197,32 +4449,32 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
-        <v>100</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
       <c r="S54" s="3">
         <v>0</v>
       </c>
@@ -4245,19 +4497,25 @@
         <v>0</v>
       </c>
       <c r="Z54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="3">
         <v>0</v>
       </c>
       <c r="AB54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,13 +4578,15 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -4339,52 +4601,52 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
+        <v>100</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S57" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
+      <c r="X57" s="3">
+        <v>0</v>
       </c>
       <c r="Y57" s="3">
         <v>0</v>
@@ -4392,266 +4654,290 @@
       <c r="Z57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
-      </c>
-      <c r="U58" s="3">
-        <v>600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>600</v>
       </c>
       <c r="W58" s="3">
         <v>600</v>
       </c>
       <c r="X58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>600</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>600</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F59" s="3">
         <v>5100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2000</v>
       </c>
       <c r="I59" s="3">
         <v>1600</v>
       </c>
       <c r="J59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>400</v>
-      </c>
-      <c r="S59" s="3">
-        <v>300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>300</v>
       </c>
       <c r="V59" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
         <v>300</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y59" s="3">
         <v>300</v>
       </c>
       <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB59" s="3">
         <v>400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2300</v>
       </c>
       <c r="J60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>600</v>
-      </c>
-      <c r="U60" s="3">
-        <v>900</v>
-      </c>
-      <c r="V60" s="3">
-        <v>900</v>
       </c>
       <c r="W60" s="3">
         <v>900</v>
       </c>
       <c r="X60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>1400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4671,26 +4957,26 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4750,47 +5042,47 @@
       <c r="G62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F66" s="3">
         <v>6800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3100</v>
       </c>
       <c r="J66" s="3">
         <v>2600</v>
       </c>
       <c r="K66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
-      </c>
-      <c r="U66" s="3">
-        <v>900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>900</v>
       </c>
       <c r="W66" s="3">
         <v>900</v>
       </c>
       <c r="X66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5387,13 +5723,13 @@
         <v>100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q70" s="3">
         <v>100</v>
       </c>
       <c r="R70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>100</v>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-7500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-4000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-3700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-3300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-2400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-4500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>100</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,22 +6607,24 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6718,71 +7152,71 @@
         <v>-400</v>
       </c>
       <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
@@ -6792,8 +7226,14 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6850,17 +7292,17 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7102,17 +7562,17 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,47 +8019,47 @@
         <v>400</v>
       </c>
       <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
+        <v>400</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
@@ -7575,34 +8067,40 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7711,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>100</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
@@ -7765,6 +8269,12 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TNRG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>TNRG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,8 +802,8 @@
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -814,11 +818,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -826,26 +830,26 @@
         <v>0</v>
       </c>
       <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>500</v>
       </c>
       <c r="S8" s="3">
         <v>500</v>
       </c>
       <c r="T8" s="3">
+        <v>500</v>
+      </c>
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
       <c r="V8" s="3">
         <v>0</v>
       </c>
@@ -859,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
         <v>200</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -914,27 +921,27 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>900</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,27 +1013,27 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P10" s="3">
         <v>900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,8 +1145,8 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
@@ -1159,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1279,44 +1299,44 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
@@ -1336,11 +1356,11 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
@@ -1348,14 +1368,17 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,38 +1499,39 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1512,25 +1539,25 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>200</v>
       </c>
       <c r="V17" s="3">
         <v>200</v>
@@ -1542,13 +1569,13 @@
         <v>200</v>
       </c>
       <c r="Y17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Z17" s="3">
         <v>300</v>
       </c>
       <c r="AA17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AB17" s="3">
         <v>200</v>
@@ -1557,13 +1584,16 @@
         <v>200</v>
       </c>
       <c r="AD17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1573,27 +1603,27 @@
       <c r="E18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-800</v>
       </c>
       <c r="I18" s="3">
         <v>-800</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1601,25 +1631,25 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
         <v>-200</v>
@@ -1631,13 +1661,13 @@
         <v>-200</v>
       </c>
       <c r="Y18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-200</v>
       </c>
       <c r="AB18" s="3">
         <v>-200</v>
@@ -1646,13 +1676,16 @@
         <v>-200</v>
       </c>
       <c r="AD18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="AE18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1695,8 +1729,8 @@
       <c r="E20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1705,17 +1739,17 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1723,11 +1757,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1753,28 +1787,31 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
       <c r="AD20" s="3">
         <v>0</v>
       </c>
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1784,27 +1821,27 @@
       <c r="E21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
@@ -1812,58 +1849,61 @@
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
+        <v>100</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-100</v>
       </c>
       <c r="W21" s="3">
         <v>-100</v>
       </c>
       <c r="X21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD21" s="3">
-        <v>-100</v>
       </c>
       <c r="AE21" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1871,41 +1911,41 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-5500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-100</v>
       </c>
       <c r="W23" s="3">
         <v>-100</v>
       </c>
       <c r="X23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>-100</v>
       </c>
       <c r="AE23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>-100</v>
       </c>
       <c r="X26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>-100</v>
       </c>
       <c r="AE26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
+        <v>100</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>-100</v>
       </c>
       <c r="X27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>-100</v>
       </c>
       <c r="AE27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2496,8 +2557,8 @@
       <c r="E29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -2509,28 +2570,28 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
-        <v>100</v>
-      </c>
       <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2763,8 +2833,8 @@
       <c r="E32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2773,17 +2843,17 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2791,10 +2861,10 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2821,19 +2891,19 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
-        <v>100</v>
-      </c>
       <c r="AC32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
+        <v>100</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
       <c r="U33" s="3">
+        <v>100</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-100</v>
       </c>
       <c r="W33" s="3">
         <v>-100</v>
       </c>
       <c r="X33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD33" s="3">
-        <v>-100</v>
       </c>
       <c r="AE33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
+        <v>100</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
       <c r="U35" s="3">
+        <v>100</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-100</v>
       </c>
       <c r="W35" s="3">
         <v>-100</v>
       </c>
       <c r="X35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD35" s="3">
-        <v>-100</v>
       </c>
       <c r="AE35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3291,11 +3378,11 @@
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -3304,13 +3391,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -3346,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3466,38 +3559,38 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>100</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -3505,8 +3598,8 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
@@ -3520,8 +3613,8 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
+      <c r="AA43" s="3">
+        <v>0</v>
       </c>
       <c r="AB43" s="3" t="s">
         <v>4</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3565,28 +3661,28 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
       </c>
       <c r="N44" s="3">
+        <v>100</v>
+      </c>
+      <c r="O44" s="3">
         <v>200</v>
       </c>
-      <c r="O44" s="3">
-        <v>100</v>
-      </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
+      <c r="P44" s="3">
+        <v>100</v>
       </c>
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>100</v>
-      </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
       </c>
       <c r="T44" s="3" t="s">
         <v>4</v>
@@ -3594,8 +3690,8 @@
       <c r="U44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V44" s="3">
-        <v>0</v>
+      <c r="V44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W44" s="3">
         <v>0</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3633,49 +3732,49 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -3686,8 +3785,8 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3713,25 +3812,28 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
         <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -3743,29 +3845,29 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
-        <v>100</v>
-      </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -3791,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="AB46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD46" s="3">
         <v>0</v>
@@ -3802,16 +3904,19 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>5500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
+      <c r="E47" s="3">
+        <v>5500</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>4</v>
@@ -3828,8 +3933,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3921,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -3932,26 +4040,26 @@
       <c r="O48" s="3">
         <v>600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
+      <c r="P48" s="3">
+        <v>600</v>
       </c>
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V48" s="3">
-        <v>0</v>
+      <c r="V48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4010,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>100</v>
@@ -4022,7 +4133,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -4030,8 +4141,8 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>4</v>
@@ -4039,8 +4150,8 @@
       <c r="U49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4288,17 +4408,17 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>4</v>
@@ -4306,8 +4426,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4434,16 +4560,16 @@
         <v>5700</v>
       </c>
       <c r="E54" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F54" s="3">
         <v>2500</v>
       </c>
-      <c r="F54" s="3">
-        <v>100</v>
-      </c>
       <c r="G54" s="3">
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
@@ -4455,29 +4581,29 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
-        <v>100</v>
-      </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
       <c r="T54" s="3">
         <v>0</v>
       </c>
@@ -4503,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="AB54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD54" s="3">
         <v>0</v>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,17 +4710,18 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
@@ -4607,19 +4738,19 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4628,11 +4759,11 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T57" s="3" t="s">
         <v>4</v>
       </c>
@@ -4642,8 +4773,8 @@
       <c r="V57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
+      <c r="W57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X57" s="3">
         <v>0</v>
@@ -4651,26 +4782,29 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
       </c>
       <c r="AC57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD57" s="3">
-        <v>0</v>
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,41 +4812,41 @@
         <v>1100</v>
       </c>
       <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>400</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="N58" s="3">
         <v>700</v>
       </c>
       <c r="O58" s="3">
+        <v>700</v>
+      </c>
+      <c r="P58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
@@ -4720,19 +4854,19 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
       </c>
       <c r="W58" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="X58" s="3">
         <v>600</v>
@@ -4741,25 +4875,28 @@
         <v>600</v>
       </c>
       <c r="Z58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA58" s="3">
         <v>500</v>
       </c>
       <c r="AB58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC58" s="3">
         <v>600</v>
       </c>
       <c r="AD58" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AE58" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4767,40 +4904,40 @@
         <v>10000</v>
       </c>
       <c r="E59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F59" s="3">
         <v>8700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1200</v>
       </c>
       <c r="M59" s="3">
         <v>1200</v>
       </c>
       <c r="N59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>200</v>
@@ -4809,19 +4946,19 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>300</v>
       </c>
       <c r="X59" s="3">
         <v>300</v>
@@ -4830,87 +4967,90 @@
         <v>300</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB59" s="3">
         <v>300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>900</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E60" s="3">
         <v>11600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2100</v>
       </c>
       <c r="N60" s="3">
         <v>2100</v>
       </c>
       <c r="O60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>600</v>
       </c>
       <c r="V60" s="3">
         <v>600</v>
       </c>
       <c r="W60" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="X60" s="3">
         <v>900</v>
@@ -4919,25 +5059,28 @@
         <v>900</v>
       </c>
       <c r="Z60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1600</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4963,23 +5106,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>600</v>
       </c>
       <c r="M61" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
       </c>
       <c r="O61" s="3">
+        <v>300</v>
+      </c>
+      <c r="P61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -5025,67 +5168,70 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
       <c r="K62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
+      <c r="P62" s="3">
+        <v>300</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,70 +5536,73 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2700</v>
       </c>
       <c r="N66" s="3">
         <v>2700</v>
       </c>
       <c r="O66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>600</v>
       </c>
       <c r="V66" s="3">
         <v>600</v>
       </c>
       <c r="W66" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="X66" s="3">
         <v>900</v>
@@ -5453,25 +5611,28 @@
         <v>900</v>
       </c>
       <c r="Z66" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5729,10 +5897,10 @@
         <v>100</v>
       </c>
       <c r="R70" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S70" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>100</v>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-3800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-3700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-3000</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-2900</v>
       </c>
       <c r="AB72" s="3">
         <v>-2900</v>
       </c>
       <c r="AC72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-2500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-2400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-2200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-8400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-1000</v>
       </c>
       <c r="X76" s="3">
         <v>-1000</v>
       </c>
       <c r="Y76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-1400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
+        <v>100</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
       <c r="U81" s="3">
+        <v>100</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-100</v>
       </c>
       <c r="W81" s="3">
         <v>-100</v>
       </c>
       <c r="X81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-200</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>-100</v>
       </c>
       <c r="AE81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,29 +7357,32 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -7173,31 +7390,31 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>200</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -7206,19 +7423,19 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z89" s="3">
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB89" s="3">
         <v>0</v>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7292,20 +7513,20 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7568,14 +7798,14 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,28 +8253,31 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -8040,29 +8286,29 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-100</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
-        <v>100</v>
-      </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
@@ -8073,34 +8319,37 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
       <c r="AC100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8221,28 +8473,28 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
